--- a/交易紀錄/運彩統計.xlsx
+++ b/交易紀錄/運彩統計.xlsx
@@ -12,14 +12,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">冰球大小戰績!$A$1:$D$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">冰球大小戰績!$A$1:$D$65</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
   <si>
     <t>投注細節</t>
   </si>
@@ -145,6 +146,81 @@
   </si>
   <si>
     <t>2014月01日 06 09:33:49</t>
+  </si>
+  <si>
+    <t>高于 5.5 @ 2.10</t>
+  </si>
+  <si>
+    <t>2014月01日 07 14:40:00</t>
+  </si>
+  <si>
+    <t>高于 6.5 @ 2.50</t>
+  </si>
+  <si>
+    <t>2014月01日 07 08:49:03</t>
+  </si>
+  <si>
+    <t>高于 6.5 @ 2.55</t>
+  </si>
+  <si>
+    <t>2014月01日 07 08:48:23</t>
+  </si>
+  <si>
+    <t>高于 5.5 @ 2.65</t>
+  </si>
+  <si>
+    <t>2014月01日 08 11:08:41</t>
+  </si>
+  <si>
+    <t>高于 5.5 @ 1.52</t>
+  </si>
+  <si>
+    <t>高于 5.5 @ 1.71</t>
+  </si>
+  <si>
+    <t>2014月01日 08 10:48:05</t>
+  </si>
+  <si>
+    <t>高于 5.5 @ 2.25</t>
+  </si>
+  <si>
+    <t>2014月01日 08 08:39:12</t>
+  </si>
+  <si>
+    <t>5個進球 @ 4.00</t>
+  </si>
+  <si>
+    <t>2014月01日 07 23:17:42</t>
+  </si>
+  <si>
+    <t>2014月01日 07 21:54:06</t>
+  </si>
+  <si>
+    <t>4個進球 @ 3.10</t>
+  </si>
+  <si>
+    <t>2014月01日 07 20:25:03</t>
+  </si>
+  <si>
+    <t>4個進球 @ 3.00</t>
+  </si>
+  <si>
+    <t>高于 5.5 @ 2.45</t>
+  </si>
+  <si>
+    <t>2014月01日 07 19:39:18</t>
+  </si>
+  <si>
+    <t>高于 6.5 @ 2.25</t>
+  </si>
+  <si>
+    <t>2014月01日 07 19:19:27</t>
+  </si>
+  <si>
+    <t>5個進球 @ 4.50</t>
+  </si>
+  <si>
+    <t>2014月01日 07 15:55:09</t>
   </si>
 </sst>
 </file>
@@ -279,17 +355,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -592,11 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D38"/>
+      <selection activeCell="C63" sqref="C2:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -619,287 +694,293 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" thickBot="1">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="7">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" hidden="1" thickBot="1">
+        <v>48</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" thickBot="1">
+      <c r="B3" s="8"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="7">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" hidden="1" thickBot="1">
+        <v>50</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" hidden="1" thickBot="1">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7">
+        <v>51</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" ht="33.75" thickBot="1">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" ht="50.25" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" ht="50.25" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="5">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="50.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A8" s="3" t="s">
+    <row r="10" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="50.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="17.25" hidden="1" thickBot="1">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7">
-        <v>10</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="B11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="5">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17.25" hidden="1" thickBot="1">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="17.25" hidden="1" thickBot="1">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="7">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7">
+    <row r="12" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="5">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="5">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.25" hidden="1" thickBot="1">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" ht="33.75" hidden="1" thickBot="1">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="7">
-        <v>10</v>
-      </c>
-      <c r="D15" s="7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17.25" hidden="1" thickBot="1">
+    <row r="16" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" ht="17.25" thickBot="1">
+      <c r="B16" s="8"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="7">
-        <v>10</v>
-      </c>
-      <c r="D17" s="7">
-        <v>30.25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17.25" hidden="1" thickBot="1">
+        <v>61</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="5">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
       <c r="A18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" ht="33.75" hidden="1" thickBot="1">
-      <c r="A19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" ht="17.25" hidden="1" thickBot="1">
-      <c r="A20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="7">
-        <v>10</v>
-      </c>
-      <c r="D20" s="7">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="5">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="5">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17.25" hidden="1" thickBot="1">
-      <c r="A21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" ht="33.75" hidden="1" thickBot="1">
+    <row r="22" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
       <c r="A22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" ht="17.25" hidden="1" thickBot="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="7">
-        <v>10</v>
-      </c>
-      <c r="D23" s="7">
+        <v>42</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="5">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.25" hidden="1" thickBot="1">
+    <row r="24" spans="1:4" ht="17.25" thickBot="1">
       <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" ht="17.25" thickBot="1">
+      <c r="B24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="5">
+        <v>10</v>
+      </c>
+      <c r="D25" s="5">
         <v>25</v>
       </c>
-      <c r="C25" s="7">
-        <v>10</v>
-      </c>
-      <c r="D25" s="7">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17.25" hidden="1" thickBot="1">
+    </row>
+    <row r="26" spans="1:4" ht="17.25" thickBot="1">
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" ht="17.25" thickBot="1">
+      <c r="B26" s="8"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="7">
-        <v>10</v>
-      </c>
-      <c r="D27" s="7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17.25" hidden="1" thickBot="1">
+        <v>46</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="5">
+        <v>10</v>
+      </c>
+      <c r="D27" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17.25" thickBot="1">
       <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
@@ -907,229 +988,657 @@
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
     </row>
-    <row r="29" spans="1:4" ht="17.25" thickBot="1">
+    <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="5">
+        <v>10</v>
+      </c>
+      <c r="D29" s="5">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="5">
+        <v>10</v>
+      </c>
+      <c r="D31" s="5">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="5">
+        <v>10</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="5">
+        <v>10</v>
+      </c>
+      <c r="D35" s="5">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="5">
+        <v>10</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="5">
+        <v>10</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" ht="33.75" thickBot="1">
+      <c r="A41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="5">
+        <v>10</v>
+      </c>
+      <c r="D42" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="5">
+        <v>10</v>
+      </c>
+      <c r="D44" s="5">
+        <v>30.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:4" ht="33.75" thickBot="1">
+      <c r="A46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="5">
+        <v>10</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:4" ht="33.75" thickBot="1">
+      <c r="A49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="5">
+        <v>10</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="5">
+        <v>10</v>
+      </c>
+      <c r="D52" s="5">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="5">
+        <v>10</v>
+      </c>
+      <c r="D54" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B56" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="7">
-        <v>10</v>
-      </c>
-      <c r="D29" s="7">
+      <c r="C56" s="5">
+        <v>10</v>
+      </c>
+      <c r="D56" s="5">
         <v>17.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17.25" hidden="1" thickBot="1">
-      <c r="A30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A31" s="3" t="s">
+    <row r="57" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B58" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="7">
-        <v>10</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="C58" s="5">
+        <v>10</v>
+      </c>
+      <c r="D58" s="5">
         <v>16.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17.25" hidden="1" thickBot="1">
-      <c r="A32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4" ht="17.25" hidden="1" thickBot="1">
-      <c r="A33" s="3" t="s">
+    <row r="59" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A59" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B60" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="7">
-        <v>10</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="C60" s="5">
+        <v>10</v>
+      </c>
+      <c r="D60" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17.25" hidden="1" thickBot="1">
-      <c r="A34" s="4" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="1:4" ht="33.75" hidden="1" thickBot="1">
-      <c r="A35" s="4" t="s">
+      <c r="B61" s="9"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+    </row>
+    <row r="62" spans="1:4" ht="33.75" thickBot="1">
+      <c r="A62" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3" t="s">
+      <c r="B62" s="8"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B63" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="7">
-        <v>10</v>
-      </c>
-      <c r="D36" s="7">
+      <c r="C63" s="5">
+        <v>10</v>
+      </c>
+      <c r="D63" s="5">
         <v>21.45</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1">
-      <c r="A37" s="4" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="1:4" ht="33" hidden="1">
-      <c r="A38" s="4" t="s">
+      <c r="B64" s="9"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="1:4" ht="33">
+      <c r="A65" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D38">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="16.5"/>
-        <filter val="17.5"/>
-        <filter val="18.7"/>
-        <filter val="20.5"/>
-        <filter val="21.45"/>
-        <filter val="21.5"/>
-        <filter val="24"/>
-        <filter val="26"/>
-        <filter val="30.25"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="48">
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B8:B9"/>
+  <mergeCells count="87">
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A13" r:id="rId2" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A14" r:id="rId3" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A15" r:id="rId4" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A16" r:id="rId5" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A17" r:id="rId6" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A18" r:id="rId7" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A19" r:id="rId8" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A20" r:id="rId9" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A21" r:id="rId10" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A22" r:id="rId11" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A23" r:id="rId12" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A24" r:id="rId13" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A25" r:id="rId14" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A26" r:id="rId15" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A27" r:id="rId16" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A28" r:id="rId17" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A29" r:id="rId18" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A30" r:id="rId19" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A31" r:id="rId20" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A32" r:id="rId21" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A33" r:id="rId22" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A34" r:id="rId23" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A35" r:id="rId24" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A36" r:id="rId25" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A37" r:id="rId26" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A38" r:id="rId27" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A2" r:id="rId28" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A3" r:id="rId29" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A4" r:id="rId30" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A5" r:id="rId31" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A6" r:id="rId32" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A7" r:id="rId33" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A9" r:id="rId34" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
-    <hyperlink ref="A8" r:id="rId35" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A39" r:id="rId1" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A40" r:id="rId2" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A41" r:id="rId3" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A42" r:id="rId4" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A43" r:id="rId5" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A44" r:id="rId6" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A45" r:id="rId7" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A46" r:id="rId8" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A47" r:id="rId9" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A48" r:id="rId10" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A49" r:id="rId11" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A50" r:id="rId12" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A51" r:id="rId13" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A52" r:id="rId14" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A53" r:id="rId15" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A54" r:id="rId16" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A55" r:id="rId17" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A56" r:id="rId18" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A57" r:id="rId19" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A58" r:id="rId20" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A59" r:id="rId21" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A60" r:id="rId22" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A61" r:id="rId23" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A62" r:id="rId24" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A63" r:id="rId25" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A64" r:id="rId26" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A65" r:id="rId27" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A29" r:id="rId28" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A30" r:id="rId29" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A31" r:id="rId30" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A32" r:id="rId31" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A33" r:id="rId32" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A34" r:id="rId33" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A36" r:id="rId34" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A35" r:id="rId35" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A23" r:id="rId36" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A24" r:id="rId37" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A25" r:id="rId38" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A26" r:id="rId39" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A27" r:id="rId40" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A28" r:id="rId41" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A2" r:id="rId42" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A3" r:id="rId43" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A4" r:id="rId44" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A5" r:id="rId45" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A6" r:id="rId46" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A7" r:id="rId47" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A8" r:id="rId48" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A9" r:id="rId49" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A10" r:id="rId50" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A11" r:id="rId51" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A12" r:id="rId52" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A13" r:id="rId53" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A14" r:id="rId54" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A15" r:id="rId55" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A16" r:id="rId56" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A17" r:id="rId57" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A18" r:id="rId58" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A19" r:id="rId59" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A20" r:id="rId60" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A21" r:id="rId61" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A22" r:id="rId62" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId63"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33">
+      <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="50.25" thickBot="1">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="33">
+      <c r="A3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="50.25" thickBot="1">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="33">
+      <c r="A5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="49.5">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://members.bet365.com/MEMBERS/Authenticated/History/Sports/Default.aspx"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
